--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/004_CellPositioning.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/004_CellPositioning.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="R2ccfe4f7f5194703"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="Rcc08f26f96064fb0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/004_CellPositioning.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/004_CellPositioning.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="Rcc08f26f96064fb0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="Rad3396f3db73444e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/004_CellPositioning.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/004_CellPositioning.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="Rad3396f3db73444e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="R0320af8d15304c6a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/004_CellPositioning.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/004_CellPositioning.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="R0320af8d15304c6a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="Rf08613bc46644f9c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/004_CellPositioning.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/004_CellPositioning.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="Rf08613bc46644f9c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="R6c5cf963700e4227"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/004_CellPositioning.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/004_CellPositioning.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="R6c5cf963700e4227"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="R73525396aa1c44c1"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/004_CellPositioning.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/004_CellPositioning.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="R73525396aa1c44c1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="R0b0e13debf03406c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/004_CellPositioning.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/004_CellPositioning.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="R0b0e13debf03406c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="R170211740f944ec8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/004_CellPositioning.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/004_CellPositioning.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="R170211740f944ec8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="Rc580fd880bd44bb6"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/004_CellPositioning.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/004_CellPositioning.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="Rc580fd880bd44bb6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="R7b210ffdbe45498a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/004_CellPositioning.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/004_CellPositioning.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="R7b210ffdbe45498a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="R1a630c1060ca4bb1"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -29,7 +29,7 @@
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="2">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/004_CellPositioning.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/004_CellPositioning.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="R1a630c1060ca4bb1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="Rc4f00f75264e43e1"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -29,7 +29,7 @@
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="2">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/004_CellPositioning.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/004_CellPositioning.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="Rc4f00f75264e43e1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="R7d94f7c94d884612"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
